--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H2">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65583146240972</v>
+        <v>5.419829666666666</v>
       </c>
       <c r="N2">
-        <v>1.65583146240972</v>
+        <v>16.259489</v>
       </c>
       <c r="O2">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="P2">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="Q2">
-        <v>16.9978111540774</v>
+        <v>146.9307060575372</v>
       </c>
       <c r="R2">
-        <v>16.9978111540774</v>
+        <v>1322.376354517835</v>
       </c>
       <c r="S2">
-        <v>0.2425390859527696</v>
+        <v>0.5301701197888457</v>
       </c>
       <c r="T2">
-        <v>0.2425390859527696</v>
+        <v>0.5301701197888457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H3">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.30092035816852</v>
+        <v>3.326362</v>
       </c>
       <c r="N3">
-        <v>3.30092035816852</v>
+        <v>9.979085999999999</v>
       </c>
       <c r="O3">
-        <v>0.5810894238775812</v>
+        <v>0.350465600020454</v>
       </c>
       <c r="P3">
-        <v>0.5810894238775812</v>
+        <v>0.3504656000204539</v>
       </c>
       <c r="Q3">
-        <v>33.88534531234468</v>
+        <v>90.17713605814332</v>
       </c>
       <c r="R3">
-        <v>33.88534531234468</v>
+        <v>811.5942245232899</v>
       </c>
       <c r="S3">
-        <v>0.483504646848521</v>
+        <v>0.3253861926413059</v>
       </c>
       <c r="T3">
-        <v>0.483504646848521</v>
+        <v>0.3253861926413057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H4">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I4">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J4">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.723820260981325</v>
+        <v>0.7450736666666667</v>
       </c>
       <c r="N4">
-        <v>0.723820260981325</v>
+        <v>2.235221</v>
       </c>
       <c r="O4">
-        <v>0.1274203109456195</v>
+        <v>0.07850098385195992</v>
       </c>
       <c r="P4">
-        <v>0.1274203109456195</v>
+        <v>0.0785009838519599</v>
       </c>
       <c r="Q4">
-        <v>7.430321494042992</v>
+        <v>20.19882664975722</v>
       </c>
       <c r="R4">
-        <v>7.430321494042992</v>
+        <v>181.789439847815</v>
       </c>
       <c r="S4">
-        <v>0.1060220852652613</v>
+        <v>0.07288343350301744</v>
       </c>
       <c r="T4">
-        <v>0.1060220852652613</v>
+        <v>0.07288343350301743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H5">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65583146240972</v>
+        <v>5.419829666666666</v>
       </c>
       <c r="N5">
-        <v>1.65583146240972</v>
+        <v>16.259489</v>
       </c>
       <c r="O5">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="P5">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="Q5">
-        <v>1.942973175422938</v>
+        <v>6.454005431462221</v>
       </c>
       <c r="R5">
-        <v>1.942973175422938</v>
+        <v>58.08604888315999</v>
       </c>
       <c r="S5">
-        <v>0.02772397773608561</v>
+        <v>0.02328799013173094</v>
       </c>
       <c r="T5">
-        <v>0.02772397773608561</v>
+        <v>0.02328799013173094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H6">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J6">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30092035816852</v>
+        <v>3.326362</v>
       </c>
       <c r="N6">
-        <v>3.30092035816852</v>
+        <v>9.979085999999999</v>
       </c>
       <c r="O6">
-        <v>0.5810894238775812</v>
+        <v>0.350465600020454</v>
       </c>
       <c r="P6">
-        <v>0.5810894238775812</v>
+        <v>0.3504656000204539</v>
       </c>
       <c r="Q6">
-        <v>3.873340889896634</v>
+        <v>3.961076221093333</v>
       </c>
       <c r="R6">
-        <v>3.873340889896634</v>
+        <v>35.64968598983999</v>
       </c>
       <c r="S6">
-        <v>0.05526809013839801</v>
+        <v>0.01429275276066145</v>
       </c>
       <c r="T6">
-        <v>0.05526809013839801</v>
+        <v>0.01429275276066144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H7">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J7">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.723820260981325</v>
+        <v>0.7450736666666667</v>
       </c>
       <c r="N7">
-        <v>0.723820260981325</v>
+        <v>2.235221</v>
       </c>
       <c r="O7">
-        <v>0.1274203109456195</v>
+        <v>0.07850098385195992</v>
       </c>
       <c r="P7">
-        <v>0.1274203109456195</v>
+        <v>0.0785009838519599</v>
       </c>
       <c r="Q7">
-        <v>0.8493396718453905</v>
+        <v>0.8872436565822223</v>
       </c>
       <c r="R7">
-        <v>0.8493396718453905</v>
+        <v>7.98519290924</v>
       </c>
       <c r="S7">
-        <v>0.01211909379422608</v>
+        <v>0.003201441606820349</v>
       </c>
       <c r="T7">
-        <v>0.01211909379422608</v>
+        <v>0.003201441606820348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H8">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I8">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J8">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65583146240972</v>
+        <v>5.419829666666666</v>
       </c>
       <c r="N8">
-        <v>1.65583146240972</v>
+        <v>16.259489</v>
       </c>
       <c r="O8">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="P8">
-        <v>0.2914902651767992</v>
+        <v>0.5710334161275863</v>
       </c>
       <c r="Q8">
-        <v>1.487661095135344</v>
+        <v>4.870799114823443</v>
       </c>
       <c r="R8">
-        <v>1.487661095135344</v>
+        <v>43.83719203341099</v>
       </c>
       <c r="S8">
-        <v>0.02122720148794398</v>
+        <v>0.01757530620700968</v>
       </c>
       <c r="T8">
-        <v>0.02122720148794398</v>
+        <v>0.01757530620700968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H9">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I9">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J9">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.30092035816852</v>
+        <v>3.326362</v>
       </c>
       <c r="N9">
-        <v>3.30092035816852</v>
+        <v>9.979085999999999</v>
       </c>
       <c r="O9">
-        <v>0.5810894238775812</v>
+        <v>0.350465600020454</v>
       </c>
       <c r="P9">
-        <v>0.5810894238775812</v>
+        <v>0.3504656000204539</v>
       </c>
       <c r="Q9">
-        <v>2.965670665443871</v>
+        <v>2.989400420612666</v>
       </c>
       <c r="R9">
-        <v>2.965670665443871</v>
+        <v>26.904603785514</v>
       </c>
       <c r="S9">
-        <v>0.04231668689066218</v>
+        <v>0.01078665461848668</v>
       </c>
       <c r="T9">
-        <v>0.04231668689066218</v>
+        <v>0.01078665461848668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H10">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I10">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J10">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.723820260981325</v>
+        <v>0.7450736666666667</v>
       </c>
       <c r="N10">
-        <v>0.723820260981325</v>
+        <v>2.235221</v>
       </c>
       <c r="O10">
-        <v>0.1274203109456195</v>
+        <v>0.07850098385195992</v>
       </c>
       <c r="P10">
-        <v>0.1274203109456195</v>
+        <v>0.0785009838519599</v>
       </c>
       <c r="Q10">
-        <v>0.6503072725563327</v>
+        <v>0.6695974558754444</v>
       </c>
       <c r="R10">
-        <v>0.6503072725563327</v>
+        <v>6.026377102879</v>
       </c>
       <c r="S10">
-        <v>0.009279131886132101</v>
+        <v>0.002416108742122117</v>
       </c>
       <c r="T10">
-        <v>0.009279131886132101</v>
+        <v>0.002416108742122117</v>
       </c>
     </row>
   </sheetData>
